--- a/datalists/N2_40_r_list.xlsx
+++ b/datalists/N2_40_r_list.xlsx
@@ -47,13 +47,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -74,12 +77,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -99,85 +108,178 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>19440.0</v>
+      <c r="B1" s="2">
+        <v>10044.0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>19440.0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>20412.0</v>
+      </c>
+      <c r="E1" s="3">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>19440.0</v>
+      <c r="B2" s="2">
+        <v>10044.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>19440.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20412.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>19440.0</v>
+      <c r="B3" s="2">
+        <v>10044.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>19440.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20412.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>19440.0</v>
+      <c r="B4" s="2">
+        <v>10044.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>19440.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20412.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>19440.0</v>
+      <c r="B5" s="2">
+        <v>10044.0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>19440.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20412.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>19440.0</v>
+      <c r="B6" s="2">
+        <v>10044.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>19440.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20412.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>19440.0</v>
+      <c r="B7" s="2">
+        <v>10044.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>19440.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20412.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>19440.0</v>
+      <c r="B8" s="2">
+        <v>10044.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>19440.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20412.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>19440.0</v>
+      <c r="B9" s="2">
+        <v>10044.0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>19440.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20412.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>19440.0</v>
+      <c r="B10" s="2">
+        <v>10044.0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>19440.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20412.0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>32400.0</v>
       </c>
     </row>
   </sheetData>
